--- a/forecast.xlsx
+++ b/forecast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\_Projetos\sem_model_forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9CE3663D-6181-4D4A-B38A-AC40A40FBA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5D49D51D-FD94-4A13-A6D7-763C321B8545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>y</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>2025/10</t>
+  </si>
+  <si>
+    <t>x-m</t>
   </si>
 </sst>
 </file>
@@ -935,14 +938,17 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -964,28 +970,77 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>392752.14398520399</v>
+        <v>355898.48094593902</v>
       </c>
       <c r="C2" s="1">
-        <v>256501.71068052499</v>
+        <v>230731.26926500999</v>
       </c>
       <c r="D2" s="1">
-        <v>75293.957876107597</v>
+        <v>64272.413249999998</v>
       </c>
       <c r="E2" s="1">
-        <v>65740.411280178494</v>
+        <v>57562.058400000002</v>
       </c>
       <c r="F2" s="1">
-        <v>54685.826742311001</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G2" s="1">
-        <v>59469.762593918203</v>
+        <v>49673.029188091801</v>
+      </c>
+      <c r="H2" s="1">
+        <f>F2-G2</f>
+        <v>3332.7400309289005</v>
+      </c>
+      <c r="J2" s="4">
+        <f>C2/$B2</f>
+        <v>0.64830641775079134</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:O13" si="0">D2/$B2</f>
+        <v>0.18059198533011714</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16173729723994995</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14893508136965686</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13957078169051565</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3642996791412098E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -993,22 +1048,50 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>401927.34645307402</v>
+        <v>356973.91374888498</v>
       </c>
       <c r="C3" s="1">
-        <v>262917.60157694801</v>
+        <v>231483.28051560599</v>
       </c>
       <c r="D3" s="1">
-        <v>77088.577386033401</v>
+        <v>64593.775316250001</v>
       </c>
       <c r="E3" s="1">
-        <v>66991.147921991695</v>
+        <v>57849.868691999996</v>
       </c>
       <c r="F3" s="1">
-        <v>56365.8842656013</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G3" s="1">
-        <v>61435.864697499899</v>
+        <v>49958.779993991498</v>
+      </c>
+      <c r="H3" s="1">
+        <f>F3-G3</f>
+        <v>3046.9892250292032</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J13" si="1">C3/$B3</f>
+        <v>0.6484599339055459</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18094816687834731</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16205629168941113</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14848639404028796</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13995078651359169</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="0"/>
+        <v>8.5356075266962567E-3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1016,22 +1099,50 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>411102.54999983503</v>
+        <v>358054.72445367899</v>
       </c>
       <c r="C4" s="1">
-        <v>269333.493396907</v>
+        <v>232239.052708314</v>
       </c>
       <c r="D4" s="1">
-        <v>78883.197154285997</v>
+        <v>64916.744192831196</v>
       </c>
       <c r="E4" s="1">
-        <v>68241.8847438425</v>
+        <v>58139.11803546</v>
       </c>
       <c r="F4" s="1">
-        <v>58045.9417888916</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G4" s="1">
-        <v>63401.967084092597</v>
+        <v>50245.9597019473</v>
+      </c>
+      <c r="H4" s="1">
+        <f>F4-G4</f>
+        <v>2759.8095170734014</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6486132896658886</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18130397327358649</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16237495015369185</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14803817852116619</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14033039161433422</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7077869068319857E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1039,94 +1150,205 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>420277.75354661501</v>
+        <v>359140.939212022</v>
       </c>
       <c r="C5" s="1">
-        <v>275749.38521688298</v>
+        <v>232998.60376201599</v>
       </c>
       <c r="D5" s="1">
-        <v>80677.816922543396</v>
+        <v>65241.327913795401</v>
       </c>
       <c r="E5" s="1">
-        <v>69492.621565696594</v>
+        <v>58429.813625637304</v>
       </c>
       <c r="F5" s="1">
-        <v>59725.999312181899</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G5" s="1">
-        <v>65368.069470690403</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>50534.5753084479</v>
+      </c>
+      <c r="H5" s="1">
+        <f>F5-G5</f>
+        <v>2471.1939105728015</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6487664822429593</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18165940106115169</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16269326953879448</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14759043994070606</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14070959278361292</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8808471570931395E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>429452.957093395</v>
+        <v>360232.58504415699</v>
       </c>
       <c r="C6" s="1">
-        <v>282165.27703685901</v>
+        <v>233761.95257098699</v>
       </c>
       <c r="D6" s="1">
-        <v>82472.436690800794</v>
+        <v>65567.534553364399</v>
       </c>
       <c r="E6" s="1">
-        <v>70743.358387550703</v>
+        <v>58721.962693765498</v>
       </c>
       <c r="F6" s="1">
-        <v>61406.056835472198</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G6" s="1">
-        <v>67334.171857288296</v>
+        <v>50824.6339929811</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6-G6</f>
+        <v>2181.1352260396015</v>
       </c>
       <c r="I6" s="2"/>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6489195099947237</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18201444643139983</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16301124643282175</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14714318309800681</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1410883859569535</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0547971410532999E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>438628.16064017499</v>
+        <v>361329.68910545198</v>
       </c>
       <c r="C7" s="1">
-        <v>288581.16885683598</v>
+        <v>234529.118124003</v>
       </c>
       <c r="D7" s="1">
-        <v>84267.056459058105</v>
+        <v>65895.372226131207</v>
       </c>
       <c r="E7" s="1">
-        <v>71994.095209404695</v>
+        <v>59015.572507234298</v>
       </c>
       <c r="F7" s="1">
-        <v>63086.114358762497</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G7" s="1">
-        <v>69300.274243886204</v>
+        <v>51116.142970936999</v>
+      </c>
+      <c r="H7" s="1">
+        <f>F7-G7</f>
+        <v>1889.6262480837031</v>
       </c>
       <c r="I7" s="2"/>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64907237128681394</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18236910559237224</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16332887743971392</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14669641276986589</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14146676708876543</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="0"/>
+        <v>5.2296456811004718E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>447803.36418695498</v>
+        <v>362432.278687054</v>
       </c>
       <c r="C8" s="1">
-        <v>294997.06067681202</v>
+        <v>235300.11950478301</v>
       </c>
       <c r="D8" s="1">
-        <v>86061.676227315504</v>
+        <v>66224.849087261799</v>
       </c>
       <c r="E8" s="1">
-        <v>73244.832031258804</v>
+        <v>59310.650369770403</v>
       </c>
       <c r="F8" s="1">
-        <v>64766.171882052797</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G8" s="1">
-        <v>71266.376630483996</v>
+        <v>51409.109493782598</v>
+      </c>
+      <c r="H8" s="1">
+        <f>F8-G8</f>
+        <v>1596.6597252381034</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64922506449254591</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18272337476995074</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16364615917938924</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14625013371060444</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14184473215249224</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.405401558112202E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1134,22 +1356,50 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>456978.53057638701</v>
+        <v>363540.38121656398</v>
       </c>
       <c r="C9" s="1">
-        <v>301412.920689866</v>
+        <v>236074.97589246801</v>
       </c>
       <c r="D9" s="1">
-        <v>87856.2870987067</v>
+        <v>66555.973332698093</v>
       </c>
       <c r="E9" s="1">
-        <v>74495.562652558103</v>
+        <v>59607.203621619301</v>
       </c>
       <c r="F9" s="1">
-        <v>66446.229405343096</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G9" s="1">
-        <v>73232.469270086993</v>
+        <v>51703.540849242403</v>
+      </c>
+      <c r="H9" s="1">
+        <f>F9-G9</f>
+        <v>1302.2283697782987</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64937758799299994</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18307725020800414</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16396308828787523</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14580435065188738</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14222227714076743</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5820735111199396E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1157,22 +1407,50 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>466153.73412234499</v>
+        <v>364654.02425872098</v>
       </c>
       <c r="C10" s="1">
-        <v>307828.81250913901</v>
+        <v>236853.70656209101</v>
       </c>
       <c r="D10" s="1">
-        <v>89650.906866767298</v>
+        <v>66888.753199361599</v>
       </c>
       <c r="E10" s="1">
-        <v>75746.299474275103</v>
+        <v>59905.239639727399</v>
       </c>
       <c r="F10" s="1">
-        <v>68126.286928633403</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G10" s="1">
-        <v>75198.571656469299</v>
+        <v>51999.444361479596</v>
+      </c>
+      <c r="H10" s="1">
+        <f>F10-G10</f>
+        <v>1006.3248575411053</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64952994017705945</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18343072816852893</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16427966141743386</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1453590683025433</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14259939806556512</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7596702369781629E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1180,70 +1458,154 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>475328.93766912498</v>
+        <v>365773.23551608901</v>
       </c>
       <c r="C11" s="1">
-        <v>314244.70432911499</v>
+        <v>237636.33088506199</v>
       </c>
       <c r="D11" s="1">
-        <v>91445.526635024595</v>
+        <v>67223.196965358395</v>
       </c>
       <c r="E11" s="1">
-        <v>76997.036296129096</v>
+        <v>60204.765837926003</v>
       </c>
       <c r="F11" s="1">
-        <v>69806.344451923695</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G11" s="1">
-        <v>77164.674043067105</v>
+        <v>52296.827391277897</v>
+      </c>
+      <c r="H11" s="1">
+        <f>F11-G11</f>
+        <v>708.94182774280489</v>
       </c>
       <c r="I11" s="2"/>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64968211944148457</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18378380493178947</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16459587523668834</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14491429134838701</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14297609095834884</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9382003900381638E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>484504.14121590502</v>
+        <v>366898.04282974399</v>
       </c>
       <c r="C12" s="1">
-        <v>320660.59614909103</v>
+        <v>238422.86832964799</v>
       </c>
       <c r="D12" s="1">
-        <v>93240.146403282095</v>
+        <v>67559.312950185194</v>
       </c>
       <c r="E12" s="1">
-        <v>78247.773117983306</v>
+        <v>60505.789667115598</v>
       </c>
       <c r="F12" s="1">
-        <v>71486.401975214001</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G12" s="1">
-        <v>79130.776429664998</v>
+        <v>52595.697336225203</v>
+      </c>
+      <c r="H12" s="1">
+        <f>F12-G12</f>
+        <v>410.07188279549882</v>
       </c>
       <c r="I12" s="2"/>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64983412419097086</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1841364767964585</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16491172643074797</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14447002445204538</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14335235187022188</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1176725818234721E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>493679.34476268501</v>
+        <v>368028.47417996801</v>
       </c>
       <c r="C13" s="1">
-        <v>327076.48796906701</v>
+        <v>239213.33846145699</v>
       </c>
       <c r="D13" s="1">
-        <v>95034.766171539406</v>
+        <v>67897.109514936106</v>
       </c>
       <c r="E13" s="1">
-        <v>79498.509939837299</v>
+        <v>60808.3186154512</v>
       </c>
       <c r="F13" s="1">
-        <v>73166.459498504293</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G13" s="1">
-        <v>81096.878816262906</v>
+        <v>52896.061630897297</v>
+      </c>
+      <c r="H13" s="1">
+        <f>F13-G13</f>
+        <v>109.707588123405</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64998595283820437</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18448874007975274</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16522721170133045</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14402627225278383</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14372817687207221</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9809538071164945E-4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1252,27 +1614,27 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B5)</f>
-        <v>406514.94849618198</v>
+        <v>357517.01459013124</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C5)</f>
-        <v>266125.54771781573</v>
+        <v>231863.05156273651</v>
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D5)</f>
-        <v>77985.887334742598</v>
+        <v>64756.065168219146</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E5)</f>
-        <v>67616.516377927313</v>
+        <v>57995.214688274325</v>
       </c>
       <c r="F15" s="2">
         <f>AVERAGE(F2:F5)</f>
-        <v>57205.913027246446</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G15" s="2">
         <f>AVERAGE(G2:G5)</f>
-        <v>62418.915961550272</v>
+        <v>50103.086048119621</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1281,27 +1643,27 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(B6:B9)</f>
-        <v>443215.75312422798</v>
+        <v>361883.73351330677</v>
       </c>
       <c r="C16" s="2">
         <f>AVERAGE(C6:C9)</f>
-        <v>291789.10681509326</v>
+        <v>234916.54152306027</v>
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D6:D9)</f>
-        <v>85164.364118970276</v>
+        <v>66060.932299863867</v>
       </c>
       <c r="E16" s="2">
         <f>AVERAGE(E6:E9)</f>
-        <v>72619.462070193069</v>
+        <v>59163.847298097367</v>
       </c>
       <c r="F16" s="2">
         <f>AVERAGE(F6:F9)</f>
-        <v>63926.143120407643</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G16" s="2">
         <f>AVERAGE(G6:G9)</f>
-        <v>70283.323000436387</v>
+        <v>51263.356826735777</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1310,27 +1672,27 @@
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B10:B13)</f>
-        <v>479916.539442515</v>
+        <v>366338.4441961305</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C10:C13)</f>
-        <v>317452.65023910301</v>
+        <v>238031.56105956453</v>
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(D10:D13)</f>
-        <v>92342.836519153352</v>
+        <v>67392.093157460331</v>
       </c>
       <c r="E17" s="2">
         <f>AVERAGE(E10:E13)</f>
-        <v>77622.404707056208</v>
+        <v>60356.028440055052</v>
       </c>
       <c r="F17" s="2">
         <f>AVERAGE(F10:F13)</f>
-        <v>70646.373213568848</v>
+        <v>53005.769219020702</v>
       </c>
       <c r="G17" s="2">
         <f>AVERAGE(G10:G13)</f>
-        <v>78147.725236366066</v>
+        <v>52447.007679969989</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1339,27 +1701,27 @@
       </c>
       <c r="B19" s="4">
         <f>B16/B15-1</f>
-        <v>9.028156224958761E-2</v>
+        <v>1.2214017081625173E-2</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:G19" si="0">C16/C15-1</f>
-        <v>9.643403016868457E-2</v>
+        <f t="shared" ref="C19:G19" si="2">C16/C15-1</f>
+        <v>1.3169368468772813E-2</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>9.2048408110241287E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.015050062499979E-2</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>7.398999475664958E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.0150500624999346E-2</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.11747439622125144</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12599397022099112</v>
+        <f t="shared" si="2"/>
+        <v>2.3157670916753803E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,27 +1730,27 @@
       </c>
       <c r="B20" s="4">
         <f>B17/B16-1</f>
-        <v>8.2805690139809318E-2</v>
+        <v>1.230978424914464E-2</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" ref="C20:G20" si="1">C17/C16-1</f>
-        <v>8.7952369792450025E-2</v>
+        <f t="shared" ref="C20:G20" si="3">C17/C16-1</f>
+        <v>1.3260111511553374E-2</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="1"/>
-        <v>8.4289626000789708E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.0150500624999568E-2</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="1"/>
-        <v>6.8892587389691062E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.0150500624999568E-2</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10512491079750208</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.11189570868584076</v>
+        <f t="shared" si="3"/>
+        <v>2.3089608767424608E-2</v>
       </c>
     </row>
   </sheetData>

--- a/forecast.xlsx
+++ b/forecast.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\_Projetos\sem_model_forecast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\up0z\Documents\sem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5D49D51D-FD94-4A13-A6D7-763C321B8545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5536B166-C50B-4CFC-B985-3E7EDCC91055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecast" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>y</t>
   </si>
@@ -40,49 +53,13 @@
     <t>m</t>
   </si>
   <si>
-    <t>2023/01</t>
-  </si>
-  <si>
-    <t>2023/04</t>
-  </si>
-  <si>
-    <t>2023/07</t>
-  </si>
-  <si>
-    <t>2023/10</t>
-  </si>
-  <si>
-    <t>2024/01</t>
-  </si>
-  <si>
-    <t>2024/04</t>
-  </si>
-  <si>
-    <t>2024/07</t>
-  </si>
-  <si>
-    <t>2024/10</t>
-  </si>
-  <si>
-    <t>2025/01</t>
-  </si>
-  <si>
-    <t>2025/04</t>
-  </si>
-  <si>
-    <t>2025/07</t>
-  </si>
-  <si>
-    <t>2025/10</t>
-  </si>
-  <si>
     <t>x-m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -576,8 +553,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -934,11 +911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +948,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -989,772 +966,1040 @@
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" s="4">
+        <v>44562</v>
       </c>
       <c r="B2" s="1">
+        <v>316780.68</v>
+      </c>
+      <c r="C2" s="1">
+        <v>203871.69</v>
+      </c>
+      <c r="D2" s="1">
+        <v>58396.44</v>
+      </c>
+      <c r="E2" s="1">
+        <v>53209.33</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41015.769999999997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>39712.550000000003</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H5" si="0">F2-G2</f>
+        <v>1303.2199999999939</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J5" si="1">C2/$B2</f>
+        <v>0.64357362323990219</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:K5" si="2">D2/$B2</f>
+        <v>0.18434343912640128</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L5" si="3">E2/$B2</f>
+        <v>0.16796898725010631</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:M5" si="4">F2/$B2</f>
+        <v>0.12947686708671752</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2:N5" si="5">G2/$B2</f>
+        <v>0.12536291670312724</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" ref="O2:O5" si="6">H2/$B2</f>
+        <v>4.1139503835902931E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44652</v>
+      </c>
+      <c r="B3" s="1">
+        <v>328650.65999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>208583.87</v>
+      </c>
+      <c r="D3" s="1">
+        <v>61044.74</v>
+      </c>
+      <c r="E3" s="1">
+        <v>54959.65</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45353.61</v>
+      </c>
+      <c r="G3" s="1">
+        <v>41291.21</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>4062.4000000000015</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63466743076067456</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18574354909252275</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16722817474335822</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13799944901981942</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="5"/>
+        <v>0.12563860361637491</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2360845403444502E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B4" s="1">
+        <v>338552.96</v>
+      </c>
+      <c r="C4" s="1">
+        <v>216363.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>66341.070000000007</v>
+      </c>
+      <c r="E4" s="1">
+        <v>55715.17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>46929.19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>46795.87</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>133.31999999999971</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63908287790483354</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19595477765133112</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16456855081107546</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13861698329265826</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13822318965989841</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="6"/>
+        <v>3.9379363275984856E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B5" s="1">
+        <v>346782.52</v>
+      </c>
+      <c r="C5" s="1">
+        <v>224921.78</v>
+      </c>
+      <c r="D5" s="1">
+        <v>63952.65</v>
+      </c>
+      <c r="E5" s="1">
+        <v>57275.68</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45489.02</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44856.61</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>632.40999999999622</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.64859607110531403</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18441716727821228</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.16516311145094625</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13117448941774804</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="5"/>
+        <v>0.12935083925222066</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8236501655273633E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B6" s="1">
         <v>355898.48094593902</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C6" s="1">
         <v>230731.26926500999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D6" s="1">
         <v>64272.413249999998</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E6" s="1">
         <v>57562.058400000002</v>
-      </c>
-      <c r="F2" s="1">
-        <v>53005.769219020702</v>
-      </c>
-      <c r="G2" s="1">
-        <v>49673.029188091801</v>
-      </c>
-      <c r="H2" s="1">
-        <f>F2-G2</f>
-        <v>3332.7400309289005</v>
-      </c>
-      <c r="J2" s="4">
-        <f>C2/$B2</f>
-        <v>0.64830641775079134</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:O13" si="0">D2/$B2</f>
-        <v>0.18059198533011714</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16173729723994995</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14893508136965686</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13957078169051565</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" si="0"/>
-        <v>9.3642996791412098E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>356973.91374888498</v>
-      </c>
-      <c r="C3" s="1">
-        <v>231483.28051560599</v>
-      </c>
-      <c r="D3" s="1">
-        <v>64593.775316250001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>57849.868691999996</v>
-      </c>
-      <c r="F3" s="1">
-        <v>53005.769219020702</v>
-      </c>
-      <c r="G3" s="1">
-        <v>49958.779993991498</v>
-      </c>
-      <c r="H3" s="1">
-        <f>F3-G3</f>
-        <v>3046.9892250292032</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J13" si="1">C3/$B3</f>
-        <v>0.6484599339055459</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18094816687834731</v>
-      </c>
-      <c r="L3" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16205629168941113</v>
-      </c>
-      <c r="M3" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14848639404028796</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13995078651359169</v>
-      </c>
-      <c r="O3" s="4">
-        <f t="shared" si="0"/>
-        <v>8.5356075266962567E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>358054.72445367899</v>
-      </c>
-      <c r="C4" s="1">
-        <v>232239.052708314</v>
-      </c>
-      <c r="D4" s="1">
-        <v>64916.744192831196</v>
-      </c>
-      <c r="E4" s="1">
-        <v>58139.11803546</v>
-      </c>
-      <c r="F4" s="1">
-        <v>53005.769219020702</v>
-      </c>
-      <c r="G4" s="1">
-        <v>50245.9597019473</v>
-      </c>
-      <c r="H4" s="1">
-        <f>F4-G4</f>
-        <v>2759.8095170734014</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.6486132896658886</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18130397327358649</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16237495015369185</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14803817852116619</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14033039161433422</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>7.7077869068319857E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>359140.939212022</v>
-      </c>
-      <c r="C5" s="1">
-        <v>232998.60376201599</v>
-      </c>
-      <c r="D5" s="1">
-        <v>65241.327913795401</v>
-      </c>
-      <c r="E5" s="1">
-        <v>58429.813625637304</v>
-      </c>
-      <c r="F5" s="1">
-        <v>53005.769219020702</v>
-      </c>
-      <c r="G5" s="1">
-        <v>50534.5753084479</v>
-      </c>
-      <c r="H5" s="1">
-        <f>F5-G5</f>
-        <v>2471.1939105728015</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.6487664822429593</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18165940106115169</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16269326953879448</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14759043994070606</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14070959278361292</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>6.8808471570931395E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>360232.58504415699</v>
-      </c>
-      <c r="C6" s="1">
-        <v>233761.95257098699</v>
-      </c>
-      <c r="D6" s="1">
-        <v>65567.534553364399</v>
-      </c>
-      <c r="E6" s="1">
-        <v>58721.962693765498</v>
       </c>
       <c r="F6" s="1">
         <v>53005.769219020702</v>
       </c>
       <c r="G6" s="1">
-        <v>50824.6339929811</v>
+        <v>49673.029188091801</v>
       </c>
       <c r="H6" s="1">
-        <f>F6-G6</f>
-        <v>2181.1352260396015</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.6489195099947237</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18201444643139983</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16301124643282175</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14714318309800681</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1410883859569535</v>
-      </c>
-      <c r="O6" s="4">
-        <f t="shared" si="0"/>
-        <v>6.0547971410532999E-3</v>
+        <f t="shared" ref="H6:H17" si="7">F6-G6</f>
+        <v>3332.7400309289005</v>
+      </c>
+      <c r="J6" s="3">
+        <f>C6/$B6</f>
+        <v>0.64830641775079134</v>
+      </c>
+      <c r="K6" s="3">
+        <f>D6/$B6</f>
+        <v>0.18059198533011714</v>
+      </c>
+      <c r="L6" s="3">
+        <f>E6/$B6</f>
+        <v>0.16173729723994995</v>
+      </c>
+      <c r="M6" s="3">
+        <f>F6/$B6</f>
+        <v>0.14893508136965686</v>
+      </c>
+      <c r="N6" s="3">
+        <f>G6/$B6</f>
+        <v>0.13957078169051565</v>
+      </c>
+      <c r="O6" s="3">
+        <f>H6/$B6</f>
+        <v>9.3642996791412098E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
+      <c r="A7" s="4">
+        <v>45017</v>
       </c>
       <c r="B7" s="1">
-        <v>361329.68910545198</v>
+        <v>356973.91374888498</v>
       </c>
       <c r="C7" s="1">
-        <v>234529.118124003</v>
+        <v>231483.28051560599</v>
       </c>
       <c r="D7" s="1">
-        <v>65895.372226131207</v>
+        <v>64593.775316250001</v>
       </c>
       <c r="E7" s="1">
-        <v>59015.572507234298</v>
+        <v>57849.868691999996</v>
       </c>
       <c r="F7" s="1">
         <v>53005.769219020702</v>
       </c>
       <c r="G7" s="1">
-        <v>51116.142970936999</v>
+        <v>49958.779993991498</v>
       </c>
       <c r="H7" s="1">
-        <f>F7-G7</f>
-        <v>1889.6262480837031</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64907237128681394</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18236910559237224</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16332887743971392</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14669641276986589</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14146676708876543</v>
-      </c>
-      <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>5.2296456811004718E-3</v>
+        <f t="shared" si="7"/>
+        <v>3046.9892250292032</v>
+      </c>
+      <c r="J7" s="3">
+        <f>C7/$B7</f>
+        <v>0.6484599339055459</v>
+      </c>
+      <c r="K7" s="3">
+        <f>D7/$B7</f>
+        <v>0.18094816687834731</v>
+      </c>
+      <c r="L7" s="3">
+        <f>E7/$B7</f>
+        <v>0.16205629168941113</v>
+      </c>
+      <c r="M7" s="3">
+        <f>F7/$B7</f>
+        <v>0.14848639404028796</v>
+      </c>
+      <c r="N7" s="3">
+        <f>G7/$B7</f>
+        <v>0.13995078651359169</v>
+      </c>
+      <c r="O7" s="3">
+        <f>H7/$B7</f>
+        <v>8.5356075266962567E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
+      <c r="A8" s="4">
+        <v>45108</v>
       </c>
       <c r="B8" s="1">
-        <v>362432.278687054</v>
+        <v>358054.72445367899</v>
       </c>
       <c r="C8" s="1">
-        <v>235300.11950478301</v>
+        <v>232239.052708314</v>
       </c>
       <c r="D8" s="1">
-        <v>66224.849087261799</v>
+        <v>64916.744192831196</v>
       </c>
       <c r="E8" s="1">
-        <v>59310.650369770403</v>
+        <v>58139.11803546</v>
       </c>
       <c r="F8" s="1">
         <v>53005.769219020702</v>
       </c>
       <c r="G8" s="1">
-        <v>51409.109493782598</v>
+        <v>50245.9597019473</v>
       </c>
       <c r="H8" s="1">
-        <f>F8-G8</f>
-        <v>1596.6597252381034</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64922506449254591</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18272337476995074</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16364615917938924</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14625013371060444</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14184473215249224</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="0"/>
-        <v>4.405401558112202E-3</v>
+        <f t="shared" si="7"/>
+        <v>2759.8095170734014</v>
+      </c>
+      <c r="J8" s="3">
+        <f>C8/$B8</f>
+        <v>0.6486132896658886</v>
+      </c>
+      <c r="K8" s="3">
+        <f>D8/$B8</f>
+        <v>0.18130397327358649</v>
+      </c>
+      <c r="L8" s="3">
+        <f>E8/$B8</f>
+        <v>0.16237495015369185</v>
+      </c>
+      <c r="M8" s="3">
+        <f>F8/$B8</f>
+        <v>0.14803817852116619</v>
+      </c>
+      <c r="N8" s="3">
+        <f>G8/$B8</f>
+        <v>0.14033039161433422</v>
+      </c>
+      <c r="O8" s="3">
+        <f>H8/$B8</f>
+        <v>7.7077869068319857E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
+      <c r="A9" s="4">
+        <v>45200</v>
       </c>
       <c r="B9" s="1">
-        <v>363540.38121656398</v>
+        <v>359140.939212022</v>
       </c>
       <c r="C9" s="1">
-        <v>236074.97589246801</v>
+        <v>232998.60376201599</v>
       </c>
       <c r="D9" s="1">
-        <v>66555.973332698093</v>
+        <v>65241.327913795401</v>
       </c>
       <c r="E9" s="1">
-        <v>59607.203621619301</v>
+        <v>58429.813625637304</v>
       </c>
       <c r="F9" s="1">
         <v>53005.769219020702</v>
       </c>
       <c r="G9" s="1">
-        <v>51703.540849242403</v>
+        <v>50534.5753084479</v>
       </c>
       <c r="H9" s="1">
-        <f>F9-G9</f>
-        <v>1302.2283697782987</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64937758799299994</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18307725020800414</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16396308828787523</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14580435065188738</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14222227714076743</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5820735111199396E-3</v>
+        <f t="shared" si="7"/>
+        <v>2471.1939105728015</v>
+      </c>
+      <c r="J9" s="3">
+        <f>C9/$B9</f>
+        <v>0.6487664822429593</v>
+      </c>
+      <c r="K9" s="3">
+        <f>D9/$B9</f>
+        <v>0.18165940106115169</v>
+      </c>
+      <c r="L9" s="3">
+        <f>E9/$B9</f>
+        <v>0.16269326953879448</v>
+      </c>
+      <c r="M9" s="3">
+        <f>F9/$B9</f>
+        <v>0.14759043994070606</v>
+      </c>
+      <c r="N9" s="3">
+        <f>G9/$B9</f>
+        <v>0.14070959278361292</v>
+      </c>
+      <c r="O9" s="3">
+        <f>H9/$B9</f>
+        <v>6.8808471570931395E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
+      <c r="A10" s="4">
+        <v>45292</v>
       </c>
       <c r="B10" s="1">
-        <v>364654.02425872098</v>
+        <v>360232.58504415699</v>
       </c>
       <c r="C10" s="1">
-        <v>236853.70656209101</v>
+        <v>233761.95257098699</v>
       </c>
       <c r="D10" s="1">
-        <v>66888.753199361599</v>
+        <v>65567.534553364399</v>
       </c>
       <c r="E10" s="1">
-        <v>59905.239639727399</v>
+        <v>58721.962693765498</v>
       </c>
       <c r="F10" s="1">
         <v>53005.769219020702</v>
       </c>
       <c r="G10" s="1">
-        <v>51999.444361479596</v>
+        <v>50824.6339929811</v>
       </c>
       <c r="H10" s="1">
-        <f>F10-G10</f>
-        <v>1006.3248575411053</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64952994017705945</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18343072816852893</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16427966141743386</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1453590683025433</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14259939806556512</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" si="0"/>
-        <v>2.7596702369781629E-3</v>
+        <f t="shared" si="7"/>
+        <v>2181.1352260396015</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3">
+        <f>C10/$B10</f>
+        <v>0.6489195099947237</v>
+      </c>
+      <c r="K10" s="3">
+        <f>D10/$B10</f>
+        <v>0.18201444643139983</v>
+      </c>
+      <c r="L10" s="3">
+        <f>E10/$B10</f>
+        <v>0.16301124643282175</v>
+      </c>
+      <c r="M10" s="3">
+        <f>F10/$B10</f>
+        <v>0.14714318309800681</v>
+      </c>
+      <c r="N10" s="3">
+        <f>G10/$B10</f>
+        <v>0.1410883859569535</v>
+      </c>
+      <c r="O10" s="3">
+        <f>H10/$B10</f>
+        <v>6.0547971410532999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
+      <c r="A11" s="4">
+        <v>45383</v>
       </c>
       <c r="B11" s="1">
-        <v>365773.23551608901</v>
+        <v>361329.68910545198</v>
       </c>
       <c r="C11" s="1">
-        <v>237636.33088506199</v>
+        <v>234529.118124003</v>
       </c>
       <c r="D11" s="1">
-        <v>67223.196965358395</v>
+        <v>65895.372226131207</v>
       </c>
       <c r="E11" s="1">
-        <v>60204.765837926003</v>
+        <v>59015.572507234298</v>
       </c>
       <c r="F11" s="1">
         <v>53005.769219020702</v>
       </c>
       <c r="G11" s="1">
-        <v>52296.827391277897</v>
+        <v>51116.142970936999</v>
       </c>
       <c r="H11" s="1">
-        <f>F11-G11</f>
-        <v>708.94182774280489</v>
+        <f t="shared" si="7"/>
+        <v>1889.6262480837031</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64968211944148457</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18378380493178947</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16459587523668834</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14491429134838701</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14297609095834884</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9382003900381638E-3</v>
+      <c r="J11" s="3">
+        <f>C11/$B11</f>
+        <v>0.64907237128681394</v>
+      </c>
+      <c r="K11" s="3">
+        <f>D11/$B11</f>
+        <v>0.18236910559237224</v>
+      </c>
+      <c r="L11" s="3">
+        <f>E11/$B11</f>
+        <v>0.16332887743971392</v>
+      </c>
+      <c r="M11" s="3">
+        <f>F11/$B11</f>
+        <v>0.14669641276986589</v>
+      </c>
+      <c r="N11" s="3">
+        <f>G11/$B11</f>
+        <v>0.14146676708876543</v>
+      </c>
+      <c r="O11" s="3">
+        <f>H11/$B11</f>
+        <v>5.2296456811004718E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
+      <c r="A12" s="4">
+        <v>45474</v>
       </c>
       <c r="B12" s="1">
-        <v>366898.04282974399</v>
+        <v>362432.278687054</v>
       </c>
       <c r="C12" s="1">
-        <v>238422.86832964799</v>
+        <v>235300.11950478301</v>
       </c>
       <c r="D12" s="1">
-        <v>67559.312950185194</v>
+        <v>66224.849087261799</v>
       </c>
       <c r="E12" s="1">
-        <v>60505.789667115598</v>
+        <v>59310.650369770403</v>
       </c>
       <c r="F12" s="1">
         <v>53005.769219020702</v>
       </c>
       <c r="G12" s="1">
-        <v>52595.697336225203</v>
+        <v>51409.109493782598</v>
       </c>
       <c r="H12" s="1">
-        <f>F12-G12</f>
-        <v>410.07188279549882</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.64983412419097086</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1841364767964585</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16491172643074797</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14447002445204538</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14335235187022188</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1176725818234721E-3</v>
+        <f t="shared" si="7"/>
+        <v>1596.6597252381034</v>
+      </c>
+      <c r="J12" s="3">
+        <f>C12/$B12</f>
+        <v>0.64922506449254591</v>
+      </c>
+      <c r="K12" s="3">
+        <f>D12/$B12</f>
+        <v>0.18272337476995074</v>
+      </c>
+      <c r="L12" s="3">
+        <f>E12/$B12</f>
+        <v>0.16364615917938924</v>
+      </c>
+      <c r="M12" s="3">
+        <f>F12/$B12</f>
+        <v>0.14625013371060444</v>
+      </c>
+      <c r="N12" s="3">
+        <f>G12/$B12</f>
+        <v>0.14184473215249224</v>
+      </c>
+      <c r="O12" s="3">
+        <f>H12/$B12</f>
+        <v>4.405401558112202E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
+      <c r="A13" s="4">
+        <v>45566</v>
       </c>
       <c r="B13" s="1">
-        <v>368028.47417996801</v>
+        <v>363540.38121656398</v>
       </c>
       <c r="C13" s="1">
-        <v>239213.33846145699</v>
+        <v>236074.97589246801</v>
       </c>
       <c r="D13" s="1">
-        <v>67897.109514936106</v>
+        <v>66555.973332698093</v>
       </c>
       <c r="E13" s="1">
-        <v>60808.3186154512</v>
+        <v>59607.203621619301</v>
       </c>
       <c r="F13" s="1">
         <v>53005.769219020702</v>
       </c>
       <c r="G13" s="1">
+        <v>51703.540849242403</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="7"/>
+        <v>1302.2283697782987</v>
+      </c>
+      <c r="J13" s="3">
+        <f>C13/$B13</f>
+        <v>0.64937758799299994</v>
+      </c>
+      <c r="K13" s="3">
+        <f>D13/$B13</f>
+        <v>0.18307725020800414</v>
+      </c>
+      <c r="L13" s="3">
+        <f>E13/$B13</f>
+        <v>0.16396308828787523</v>
+      </c>
+      <c r="M13" s="3">
+        <f>F13/$B13</f>
+        <v>0.14580435065188738</v>
+      </c>
+      <c r="N13" s="3">
+        <f>G13/$B13</f>
+        <v>0.14222227714076743</v>
+      </c>
+      <c r="O13" s="3">
+        <f>H13/$B13</f>
+        <v>3.5820735111199396E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45658</v>
+      </c>
+      <c r="B14" s="1">
+        <v>364654.02425872098</v>
+      </c>
+      <c r="C14" s="1">
+        <v>236853.70656209101</v>
+      </c>
+      <c r="D14" s="1">
+        <v>66888.753199361599</v>
+      </c>
+      <c r="E14" s="1">
+        <v>59905.239639727399</v>
+      </c>
+      <c r="F14" s="1">
+        <v>53005.769219020702</v>
+      </c>
+      <c r="G14" s="1">
+        <v>51999.444361479596</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="7"/>
+        <v>1006.3248575411053</v>
+      </c>
+      <c r="J14" s="3">
+        <f>C14/$B14</f>
+        <v>0.64952994017705945</v>
+      </c>
+      <c r="K14" s="3">
+        <f>D14/$B14</f>
+        <v>0.18343072816852893</v>
+      </c>
+      <c r="L14" s="3">
+        <f>E14/$B14</f>
+        <v>0.16427966141743386</v>
+      </c>
+      <c r="M14" s="3">
+        <f>F14/$B14</f>
+        <v>0.1453590683025433</v>
+      </c>
+      <c r="N14" s="3">
+        <f>G14/$B14</f>
+        <v>0.14259939806556512</v>
+      </c>
+      <c r="O14" s="3">
+        <f>H14/$B14</f>
+        <v>2.7596702369781629E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45748</v>
+      </c>
+      <c r="B15" s="1">
+        <v>365773.23551608901</v>
+      </c>
+      <c r="C15" s="1">
+        <v>237636.33088506199</v>
+      </c>
+      <c r="D15" s="1">
+        <v>67223.196965358395</v>
+      </c>
+      <c r="E15" s="1">
+        <v>60204.765837926003</v>
+      </c>
+      <c r="F15" s="1">
+        <v>53005.769219020702</v>
+      </c>
+      <c r="G15" s="1">
+        <v>52296.827391277897</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="7"/>
+        <v>708.94182774280489</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3">
+        <f>C15/$B15</f>
+        <v>0.64968211944148457</v>
+      </c>
+      <c r="K15" s="3">
+        <f>D15/$B15</f>
+        <v>0.18378380493178947</v>
+      </c>
+      <c r="L15" s="3">
+        <f>E15/$B15</f>
+        <v>0.16459587523668834</v>
+      </c>
+      <c r="M15" s="3">
+        <f>F15/$B15</f>
+        <v>0.14491429134838701</v>
+      </c>
+      <c r="N15" s="3">
+        <f>G15/$B15</f>
+        <v>0.14297609095834884</v>
+      </c>
+      <c r="O15" s="3">
+        <f>H15/$B15</f>
+        <v>1.9382003900381638E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45839</v>
+      </c>
+      <c r="B16" s="1">
+        <v>366898.04282974399</v>
+      </c>
+      <c r="C16" s="1">
+        <v>238422.86832964799</v>
+      </c>
+      <c r="D16" s="1">
+        <v>67559.312950185194</v>
+      </c>
+      <c r="E16" s="1">
+        <v>60505.789667115598</v>
+      </c>
+      <c r="F16" s="1">
+        <v>53005.769219020702</v>
+      </c>
+      <c r="G16" s="1">
+        <v>52595.697336225203</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="7"/>
+        <v>410.07188279549882</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3">
+        <f>C16/$B16</f>
+        <v>0.64983412419097086</v>
+      </c>
+      <c r="K16" s="3">
+        <f>D16/$B16</f>
+        <v>0.1841364767964585</v>
+      </c>
+      <c r="L16" s="3">
+        <f>E16/$B16</f>
+        <v>0.16491172643074797</v>
+      </c>
+      <c r="M16" s="3">
+        <f>F16/$B16</f>
+        <v>0.14447002445204538</v>
+      </c>
+      <c r="N16" s="3">
+        <f>G16/$B16</f>
+        <v>0.14335235187022188</v>
+      </c>
+      <c r="O16" s="3">
+        <f>H16/$B16</f>
+        <v>1.1176725818234721E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45931</v>
+      </c>
+      <c r="B17" s="1">
+        <v>368028.47417996801</v>
+      </c>
+      <c r="C17" s="1">
+        <v>239213.33846145699</v>
+      </c>
+      <c r="D17" s="1">
+        <v>67897.109514936106</v>
+      </c>
+      <c r="E17" s="1">
+        <v>60808.3186154512</v>
+      </c>
+      <c r="F17" s="1">
+        <v>53005.769219020702</v>
+      </c>
+      <c r="G17" s="1">
         <v>52896.061630897297</v>
       </c>
-      <c r="H13" s="1">
-        <f>F13-G13</f>
+      <c r="H17" s="1">
+        <f t="shared" si="7"/>
         <v>109.707588123405</v>
       </c>
-      <c r="J13" s="4">
-        <f t="shared" si="1"/>
+      <c r="J17" s="3">
+        <f>C17/$B17</f>
         <v>0.64998595283820437</v>
       </c>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
+      <c r="K17" s="3">
+        <f>D17/$B17</f>
         <v>0.18448874007975274</v>
       </c>
-      <c r="L13" s="4">
-        <f t="shared" si="0"/>
+      <c r="L17" s="3">
+        <f>E17/$B17</f>
         <v>0.16522721170133045</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="0"/>
+      <c r="M17" s="3">
+        <f>F17/$B17</f>
         <v>0.14402627225278383</v>
       </c>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
+      <c r="N17" s="3">
+        <f>G17/$B17</f>
         <v>0.14372817687207221</v>
       </c>
-      <c r="O13" s="4">
-        <f t="shared" si="0"/>
+      <c r="O17" s="3">
+        <f>H17/$B17</f>
         <v>2.9809538071164945E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="2">
+        <f>AVERAGE(B2:B5)</f>
+        <v>332691.70500000002</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C2:C5)</f>
+        <v>213435.185</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="C19:G19" si="8">AVERAGE(D2:D5)</f>
+        <v>62433.724999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="8"/>
+        <v>55289.957500000004</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="8"/>
+        <v>44696.897499999999</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="8"/>
+        <v>43164.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2023</v>
       </c>
-      <c r="B15" s="2">
-        <f>AVERAGE(B2:B5)</f>
+      <c r="B20" s="2">
+        <f>AVERAGE(B6:B9)</f>
         <v>357517.01459013124</v>
       </c>
-      <c r="C15" s="2">
-        <f>AVERAGE(C2:C5)</f>
+      <c r="C20" s="2">
+        <f>AVERAGE(C6:C9)</f>
         <v>231863.05156273651</v>
       </c>
-      <c r="D15" s="2">
-        <f>AVERAGE(D2:D5)</f>
+      <c r="D20" s="2">
+        <f>AVERAGE(D6:D9)</f>
         <v>64756.065168219146</v>
       </c>
-      <c r="E15" s="2">
-        <f>AVERAGE(E2:E5)</f>
+      <c r="E20" s="2">
+        <f>AVERAGE(E6:E9)</f>
         <v>57995.214688274325</v>
       </c>
-      <c r="F15" s="2">
-        <f>AVERAGE(F2:F5)</f>
-        <v>53005.769219020702</v>
-      </c>
-      <c r="G15" s="2">
-        <f>AVERAGE(G2:G5)</f>
-        <v>50103.086048119621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16" s="2">
-        <f>AVERAGE(B6:B9)</f>
-        <v>361883.73351330677</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C6:C9)</f>
-        <v>234916.54152306027</v>
-      </c>
-      <c r="D16" s="2">
-        <f>AVERAGE(D6:D9)</f>
-        <v>66060.932299863867</v>
-      </c>
-      <c r="E16" s="2">
-        <f>AVERAGE(E6:E9)</f>
-        <v>59163.847298097367</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="F20" s="2">
         <f>AVERAGE(F6:F9)</f>
         <v>53005.769219020702</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G20" s="2">
         <f>AVERAGE(G6:G9)</f>
-        <v>51263.356826735777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17" s="2">
+        <v>50103.086048119621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="2">
         <f>AVERAGE(B10:B13)</f>
-        <v>366338.4441961305</v>
-      </c>
-      <c r="C17" s="2">
+        <v>361883.73351330677</v>
+      </c>
+      <c r="C21" s="2">
         <f>AVERAGE(C10:C13)</f>
-        <v>238031.56105956453</v>
-      </c>
-      <c r="D17" s="2">
+        <v>234916.54152306027</v>
+      </c>
+      <c r="D21" s="2">
         <f>AVERAGE(D10:D13)</f>
-        <v>67392.093157460331</v>
-      </c>
-      <c r="E17" s="2">
+        <v>66060.932299863867</v>
+      </c>
+      <c r="E21" s="2">
         <f>AVERAGE(E10:E13)</f>
-        <v>60356.028440055052</v>
-      </c>
-      <c r="F17" s="2">
+        <v>59163.847298097367</v>
+      </c>
+      <c r="F21" s="2">
         <f>AVERAGE(F10:F13)</f>
         <v>53005.769219020702</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G21" s="2">
         <f>AVERAGE(G10:G13)</f>
+        <v>51263.356826735777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="2">
+        <f>AVERAGE(B14:B17)</f>
+        <v>366338.4441961305</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C17)</f>
+        <v>238031.56105956453</v>
+      </c>
+      <c r="D22" s="2">
+        <f>AVERAGE(D14:D17)</f>
+        <v>67392.093157460331</v>
+      </c>
+      <c r="E22" s="2">
+        <f>AVERAGE(E14:E17)</f>
+        <v>60356.028440055052</v>
+      </c>
+      <c r="F22" s="2">
+        <f>AVERAGE(F14:F17)</f>
+        <v>53005.769219020702</v>
+      </c>
+      <c r="G22" s="2">
+        <f>AVERAGE(G14:G17)</f>
         <v>52447.007679969989</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2023</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B20/B19-1</f>
+        <v>7.4619562847625609E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:G24" si="9">C20/C19-1</f>
+        <v>8.6339403518386648E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="9"/>
+        <v>3.7196886269706742E-2</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="9"/>
+        <v>4.8928545265644718E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="9"/>
+        <v>0.18589370143689954</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="9"/>
+        <v>0.16075934581037155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2024</v>
       </c>
-      <c r="B19" s="4">
-        <f>B16/B15-1</f>
+      <c r="B25" s="3">
+        <f>B21/B20-1</f>
         <v>1.2214017081625173E-2</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:G19" si="2">C16/C15-1</f>
+      <c r="C25" s="3">
+        <f>C21/C20-1</f>
         <v>1.3169368468772813E-2</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="2"/>
+      <c r="D25" s="3">
+        <f>D21/D20-1</f>
         <v>2.015050062499979E-2</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" si="2"/>
+      <c r="E25" s="3">
+        <f>E21/E20-1</f>
         <v>2.0150500624999346E-2</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="2"/>
+      <c r="F25" s="3">
+        <f>F21/F20-1</f>
         <v>0</v>
       </c>
-      <c r="G19" s="4">
-        <f t="shared" si="2"/>
+      <c r="G25" s="3">
+        <f>G21/G20-1</f>
         <v>2.3157670916753803E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2025</v>
       </c>
-      <c r="B20" s="4">
-        <f>B17/B16-1</f>
+      <c r="B26" s="3">
+        <f>B22/B21-1</f>
         <v>1.230978424914464E-2</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" ref="C20:G20" si="3">C17/C16-1</f>
+      <c r="C26" s="3">
+        <f>C22/C21-1</f>
         <v>1.3260111511553374E-2</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
+      <c r="D26" s="3">
+        <f>D22/D21-1</f>
         <v>2.0150500624999568E-2</v>
       </c>
-      <c r="E20" s="4">
-        <f t="shared" si="3"/>
+      <c r="E26" s="3">
+        <f>E22/E21-1</f>
         <v>2.0150500624999568E-2</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="3"/>
+      <c r="F26" s="3">
+        <f>F22/F21-1</f>
         <v>0</v>
       </c>
-      <c r="G20" s="4">
-        <f t="shared" si="3"/>
+      <c r="G26" s="3">
+        <f>G22/G21-1</f>
         <v>2.3089608767424608E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial Black"&amp;11&amp;K737373 PÚBLICA</oddFooter>
+  </headerFooter>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>